--- a/Data/EC/NIT-9006714837.xlsx
+++ b/Data/EC/NIT-9006714837.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE56A66D-360A-4F3A-A38E-3F46440DFDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4E5BAE0-B6FC-4F08-9644-BDF1E5A483A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{543E7679-D45D-41C9-ADB7-75DFDEF19B18}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47729AA2-C680-452D-A64E-D202908BCBC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="98">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,46 +74,154 @@
     <t>1803</t>
   </si>
   <si>
+    <t>9021980</t>
+  </si>
+  <si>
+    <t>ELOY MANUEL VILLADIEGO GONZALEZ</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>33056136</t>
+  </si>
+  <si>
+    <t>LIBIA ESTHER FERIA OQUENDO</t>
+  </si>
+  <si>
+    <t>1052964267</t>
+  </si>
+  <si>
+    <t>JUAN CAMILO GUZMAN SOLANO</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1047417897</t>
+  </si>
+  <si>
+    <t>ALFREDO DE JESUS FORTICH LEYVA</t>
+  </si>
+  <si>
+    <t>9692562</t>
+  </si>
+  <si>
+    <t>JHON JAIRO SANCHEZ QUINTERO</t>
+  </si>
+  <si>
+    <t>92227937</t>
+  </si>
+  <si>
+    <t>JOSE DE JESUS ZUÑIGA QUIROZ</t>
+  </si>
+  <si>
+    <t>92533448</t>
+  </si>
+  <si>
+    <t>ARGEMIRO LONDOÑO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>4020181</t>
+  </si>
+  <si>
+    <t>MILTON ENRIQUE MEDINA MARTINEZ</t>
+  </si>
+  <si>
+    <t>92516991</t>
+  </si>
+  <si>
+    <t>JORGE LUIS VERGARA MERCADO</t>
+  </si>
+  <si>
+    <t>1072522959</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO TAMAYO VERBEL</t>
+  </si>
+  <si>
+    <t>13510129</t>
+  </si>
+  <si>
+    <t>JOSE ALEXANDER GARCIA NUÑEZ</t>
+  </si>
+  <si>
+    <t>1098672612</t>
+  </si>
+  <si>
+    <t>YENYFER YAMILE VALLEN VARGAS</t>
+  </si>
+  <si>
     <t>79801197</t>
   </si>
   <si>
     <t>CARLOS JAVIER PEDRAZA ALFONSO</t>
   </si>
   <si>
-    <t>9021980</t>
-  </si>
-  <si>
-    <t>ELOY MANUEL VILLADIEGO GONZALEZ</t>
-  </si>
-  <si>
-    <t>13510129</t>
-  </si>
-  <si>
-    <t>JOSE ALEXANDER GARCIA NUÑEZ</t>
-  </si>
-  <si>
     <t>98763916</t>
   </si>
   <si>
     <t>CARLOS MARIO MARTINEZ JARABA</t>
   </si>
   <si>
-    <t>1072522959</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO TAMAYO VERBEL</t>
-  </si>
-  <si>
-    <t>92227937</t>
-  </si>
-  <si>
-    <t>JOSE DE JESUS ZUÑIGA QUIROZ</t>
-  </si>
-  <si>
-    <t>1047417897</t>
-  </si>
-  <si>
-    <t>ALFREDO DE JESUS FORTICH LEYVA</t>
+    <t>1065874754</t>
+  </si>
+  <si>
+    <t>HIMER BOTELLO GUERRERO</t>
   </si>
   <si>
     <t>15671242</t>
@@ -122,31 +230,52 @@
     <t>ALFREDO MANUEL PALLARES CAUSIL</t>
   </si>
   <si>
-    <t>33056136</t>
-  </si>
-  <si>
-    <t>LIBIA ESTHER FERIA OQUENDO</t>
-  </si>
-  <si>
-    <t>92516991</t>
-  </si>
-  <si>
-    <t>JORGE LUIS VERGARA MERCADO</t>
-  </si>
-  <si>
-    <t>92533448</t>
-  </si>
-  <si>
-    <t>ARGEMIRO LONDOÑO HERNANDEZ</t>
-  </si>
-  <si>
     <t>78756449</t>
   </si>
   <si>
     <t>LEONARDO FIDEL HOYOS LLORENTE</t>
   </si>
   <si>
-    <t>1804</t>
+    <t>1063562169</t>
+  </si>
+  <si>
+    <t>DEIMER SAJONERO ROJAS</t>
+  </si>
+  <si>
+    <t>14897240</t>
+  </si>
+  <si>
+    <t>MARIO GERMAN CAICEDO</t>
+  </si>
+  <si>
+    <t>1052218498</t>
+  </si>
+  <si>
+    <t>JUAN JOSE FLORIAN PEDROZO</t>
+  </si>
+  <si>
+    <t>1062402364</t>
+  </si>
+  <si>
+    <t>ERID JOSE ARIZA GAMBA</t>
+  </si>
+  <si>
+    <t>5047866</t>
+  </si>
+  <si>
+    <t>TATIANA TATIANA CHONA SIERRA</t>
+  </si>
+  <si>
+    <t>12503312</t>
+  </si>
+  <si>
+    <t>JOSE DEL CARMEN MANDON MANDON</t>
+  </si>
+  <si>
+    <t>3821492</t>
+  </si>
+  <si>
+    <t>RODRIGO MUÑOZ JIMENEZ</t>
   </si>
   <si>
     <t>92228088</t>
@@ -155,82 +284,19 @@
     <t>EDUAR ENRIQUE BARBOZA SOTOMAYOR</t>
   </si>
   <si>
-    <t>1805</t>
+    <t>1049638686</t>
+  </si>
+  <si>
+    <t>MARIA CAMILA ROBAYO ABRIL</t>
+  </si>
+  <si>
+    <t>1809</t>
   </si>
   <si>
     <t>64524103</t>
   </si>
   <si>
     <t>ADRIANA MARIA DUQUE LOPEZ</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1049638686</t>
-  </si>
-  <si>
-    <t>MARIA CAMILA ROBAYO ABRIL</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1052964267</t>
-  </si>
-  <si>
-    <t>JUAN CAMILO GUZMAN SOLANO</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -644,7 +710,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469B3E45-FC70-2EB9-0926-39FD5F966E7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3406B19E-B7B8-579A-1087-0DACFED4DCE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -995,8 +1061,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EB01F6-D4D8-4307-9701-85F550596D81}">
-  <dimension ref="B2:J94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8405AB09-67F1-4ED4-A644-3C6855CDB226}">
+  <dimension ref="B2:J105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1020,7 +1086,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1065,7 +1131,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1097,12 +1163,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>9421284</v>
+        <v>10021836</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1113,14 +1179,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C13" s="5">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F13" s="5">
         <v>22</v>
@@ -1150,13 +1216,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1193,13 +1259,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>292652</v>
+        <v>57906</v>
       </c>
       <c r="G17" s="18">
-        <v>8129220</v>
+        <v>2001540</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1210,16 +1276,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>65459</v>
+        <v>75529</v>
       </c>
       <c r="G18" s="18">
         <v>2001540</v>
@@ -1233,19 +1299,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>105800</v>
+        <v>65459</v>
       </c>
       <c r="G19" s="18">
-        <v>2645010</v>
+        <v>2001540</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1256,19 +1322,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>64737</v>
+        <v>75529</v>
       </c>
       <c r="G20" s="18">
-        <v>1798260</v>
+        <v>1888230</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1279,19 +1345,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F21" s="18">
-        <v>248756</v>
+        <v>73012</v>
       </c>
       <c r="G21" s="18">
-        <v>6218910</v>
+        <v>1888230</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1302,19 +1368,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>126998</v>
+        <v>75529</v>
       </c>
       <c r="G22" s="18">
-        <v>3174960</v>
+        <v>1888230</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1325,19 +1391,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>100522</v>
+        <v>75529</v>
       </c>
       <c r="G23" s="18">
-        <v>3141300</v>
+        <v>1888230</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1348,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>113496</v>
+        <v>75529</v>
       </c>
       <c r="G24" s="18">
-        <v>2837400</v>
+        <v>1888230</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1371,13 +1437,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
         <v>75529</v>
@@ -1394,19 +1460,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
-        <v>281813</v>
+        <v>75529</v>
       </c>
       <c r="G26" s="18">
-        <v>8129220</v>
+        <v>1888230</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1417,19 +1483,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
-        <v>248756</v>
+        <v>75529</v>
       </c>
       <c r="G27" s="18">
-        <v>6218910</v>
+        <v>1888230</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1440,13 +1506,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
         <v>75529</v>
@@ -1463,19 +1529,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
         <v>75529</v>
       </c>
       <c r="G29" s="18">
-        <v>2001540</v>
+        <v>1888230</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1486,13 +1552,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
         <v>75529</v>
@@ -1509,16 +1575,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
-        <v>57906</v>
+        <v>75529</v>
       </c>
       <c r="G31" s="18">
         <v>1888230</v>
@@ -1532,19 +1598,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>57906</v>
+        <v>75529</v>
       </c>
       <c r="G32" s="18">
-        <v>2001540</v>
+        <v>1888230</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1555,19 +1621,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
-        <v>163723</v>
+        <v>75529</v>
       </c>
       <c r="G33" s="18">
-        <v>4093079</v>
+        <v>1888230</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1578,19 +1644,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
-        <v>142420</v>
+        <v>75529</v>
       </c>
       <c r="G34" s="18">
-        <v>3560490</v>
+        <v>1888230</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1601,19 +1667,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
-        <v>142420</v>
+        <v>75529</v>
       </c>
       <c r="G35" s="18">
-        <v>3560490</v>
+        <v>1888230</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1624,16 +1690,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
-        <v>17623</v>
+        <v>75529</v>
       </c>
       <c r="G36" s="18">
         <v>1888230</v>
@@ -1647,19 +1713,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
-        <v>163723</v>
+        <v>75529</v>
       </c>
       <c r="G37" s="18">
-        <v>4093079</v>
+        <v>1888230</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1670,16 +1736,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
-        <v>75529</v>
+        <v>17623</v>
       </c>
       <c r="G38" s="18">
         <v>1888230</v>
@@ -1693,19 +1759,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F39" s="18">
-        <v>163723</v>
+        <v>100522</v>
       </c>
       <c r="G39" s="18">
-        <v>4093079</v>
+        <v>3141300</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1716,19 +1782,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F40" s="18">
-        <v>142420</v>
+        <v>58327</v>
       </c>
       <c r="G40" s="18">
-        <v>3560490</v>
+        <v>1901970</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1739,19 +1805,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F41" s="18">
-        <v>163723</v>
+        <v>126998</v>
       </c>
       <c r="G41" s="18">
-        <v>4093079</v>
+        <v>3174960</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1762,19 +1828,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F42" s="18">
-        <v>142420</v>
+        <v>248756</v>
       </c>
       <c r="G42" s="18">
-        <v>3560490</v>
+        <v>6218910</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1791,13 +1857,13 @@
         <v>47</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F43" s="18">
-        <v>75529</v>
+        <v>68497</v>
       </c>
       <c r="G43" s="18">
-        <v>1888230</v>
+        <v>2233590</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1808,19 +1874,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>75529</v>
+        <v>281813</v>
       </c>
       <c r="G44" s="18">
-        <v>1888230</v>
+        <v>8129220</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1831,19 +1897,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F45" s="18">
-        <v>163723</v>
+        <v>248756</v>
       </c>
       <c r="G45" s="18">
-        <v>4093079</v>
+        <v>6218910</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1854,19 +1920,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>142420</v>
+        <v>105800</v>
       </c>
       <c r="G46" s="18">
-        <v>3560490</v>
+        <v>2645010</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1877,19 +1943,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F47" s="18">
-        <v>142420</v>
+        <v>92000</v>
       </c>
       <c r="G47" s="18">
-        <v>3560490</v>
+        <v>6943200</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1900,19 +1966,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18">
-        <v>163723</v>
+        <v>292652</v>
       </c>
       <c r="G48" s="18">
-        <v>4093079</v>
+        <v>8129220</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1923,19 +1989,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F49" s="18">
-        <v>75529</v>
+        <v>64737</v>
       </c>
       <c r="G49" s="18">
-        <v>1888230</v>
+        <v>1798260</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1946,19 +2012,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F50" s="18">
-        <v>75529</v>
+        <v>58327</v>
       </c>
       <c r="G50" s="18">
-        <v>1888230</v>
+        <v>1901970</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1969,19 +2035,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F51" s="18">
-        <v>163723</v>
+        <v>113496</v>
       </c>
       <c r="G51" s="18">
-        <v>4093079</v>
+        <v>2837400</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1992,19 +2058,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F52" s="18">
-        <v>142420</v>
+        <v>75529</v>
       </c>
       <c r="G52" s="18">
-        <v>3560490</v>
+        <v>1888230</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2015,19 +2081,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F53" s="18">
-        <v>163723</v>
+        <v>37105</v>
       </c>
       <c r="G53" s="18">
-        <v>4093079</v>
+        <v>1209960</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2038,19 +2104,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F54" s="18">
-        <v>75529</v>
+        <v>58327</v>
       </c>
       <c r="G54" s="18">
-        <v>1888230</v>
+        <v>1901970</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2061,19 +2127,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F55" s="18">
-        <v>142420</v>
+        <v>37105</v>
       </c>
       <c r="G55" s="18">
-        <v>3560490</v>
+        <v>1209960</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2084,19 +2150,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F56" s="18">
-        <v>75529</v>
+        <v>37105</v>
       </c>
       <c r="G56" s="18">
-        <v>1888230</v>
+        <v>1209960</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2107,19 +2173,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F57" s="18">
-        <v>163723</v>
+        <v>58327</v>
       </c>
       <c r="G57" s="18">
-        <v>4093079</v>
+        <v>1901970</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2130,19 +2196,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F58" s="18">
-        <v>142420</v>
+        <v>58327</v>
       </c>
       <c r="G58" s="18">
-        <v>3560490</v>
+        <v>1901970</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2153,19 +2219,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F59" s="18">
-        <v>163723</v>
+        <v>37105</v>
       </c>
       <c r="G59" s="18">
-        <v>4093079</v>
+        <v>1209960</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2176,19 +2242,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F60" s="18">
-        <v>142420</v>
+        <v>57906</v>
       </c>
       <c r="G60" s="18">
-        <v>3560490</v>
+        <v>1888230</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2199,13 +2265,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F61" s="18">
         <v>75529</v>
@@ -2222,19 +2288,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F62" s="18">
-        <v>163723</v>
+        <v>137672</v>
       </c>
       <c r="G62" s="18">
-        <v>4093079</v>
+        <v>3560490</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2245,19 +2311,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F63" s="18">
-        <v>75529</v>
+        <v>142420</v>
       </c>
       <c r="G63" s="18">
-        <v>1888230</v>
+        <v>3560490</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2268,13 +2334,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F64" s="18">
         <v>142420</v>
@@ -2291,19 +2357,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F65" s="18">
-        <v>163723</v>
+        <v>142420</v>
       </c>
       <c r="G65" s="18">
-        <v>4093079</v>
+        <v>3560490</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2314,19 +2380,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F66" s="18">
-        <v>75529</v>
+        <v>142420</v>
       </c>
       <c r="G66" s="18">
-        <v>1888230</v>
+        <v>3560490</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2337,13 +2403,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="F67" s="18">
         <v>142420</v>
@@ -2360,19 +2426,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F68" s="18">
-        <v>75529</v>
+        <v>142420</v>
       </c>
       <c r="G68" s="18">
-        <v>1888230</v>
+        <v>3560490</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2383,13 +2449,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F69" s="18">
         <v>142420</v>
@@ -2406,19 +2472,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F70" s="18">
-        <v>163723</v>
+        <v>142420</v>
       </c>
       <c r="G70" s="18">
-        <v>4093079</v>
+        <v>3560490</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2429,19 +2495,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F71" s="18">
-        <v>75529</v>
+        <v>142420</v>
       </c>
       <c r="G71" s="18">
-        <v>1888230</v>
+        <v>3560490</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2452,13 +2518,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F72" s="18">
         <v>142420</v>
@@ -2475,19 +2541,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F73" s="18">
-        <v>163723</v>
+        <v>142420</v>
       </c>
       <c r="G73" s="18">
-        <v>4093079</v>
+        <v>3560490</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2498,19 +2564,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F74" s="18">
-        <v>75529</v>
+        <v>142420</v>
       </c>
       <c r="G74" s="18">
-        <v>1888230</v>
+        <v>3560490</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2521,13 +2587,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F75" s="18">
         <v>142420</v>
@@ -2544,19 +2610,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F76" s="18">
-        <v>163723</v>
+        <v>142420</v>
       </c>
       <c r="G76" s="18">
-        <v>4093079</v>
+        <v>3560490</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2567,13 +2633,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F77" s="18">
         <v>142420</v>
@@ -2590,19 +2656,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F78" s="18">
-        <v>75529</v>
+        <v>142420</v>
       </c>
       <c r="G78" s="18">
-        <v>1888230</v>
+        <v>3560490</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2613,19 +2679,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F79" s="18">
-        <v>163723</v>
+        <v>142420</v>
       </c>
       <c r="G79" s="18">
-        <v>4093079</v>
+        <v>3560490</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2636,19 +2702,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F80" s="18">
-        <v>75529</v>
+        <v>142420</v>
       </c>
       <c r="G80" s="18">
-        <v>1888230</v>
+        <v>3560490</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2659,16 +2725,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F81" s="18">
-        <v>163723</v>
+        <v>158266</v>
       </c>
       <c r="G81" s="18">
         <v>4093079</v>
@@ -2682,19 +2748,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F82" s="18">
-        <v>142420</v>
+        <v>163723</v>
       </c>
       <c r="G82" s="18">
-        <v>3560490</v>
+        <v>4093079</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2705,13 +2771,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F83" s="18">
         <v>163723</v>
@@ -2728,19 +2794,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F84" s="18">
-        <v>142420</v>
+        <v>163723</v>
       </c>
       <c r="G84" s="18">
-        <v>3560490</v>
+        <v>4093079</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2751,19 +2817,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F85" s="18">
-        <v>75529</v>
+        <v>163723</v>
       </c>
       <c r="G85" s="18">
-        <v>1888230</v>
+        <v>4093079</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2774,16 +2840,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F86" s="18">
-        <v>158266</v>
+        <v>163723</v>
       </c>
       <c r="G86" s="18">
         <v>4093079</v>
@@ -2797,75 +2863,328 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F87" s="18">
-        <v>137672</v>
+        <v>163723</v>
       </c>
       <c r="G87" s="18">
-        <v>3560490</v>
+        <v>4093079</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F88" s="24">
-        <v>73012</v>
-      </c>
-      <c r="G88" s="24">
-        <v>1888230</v>
-      </c>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="B88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" s="18">
+        <v>163723</v>
+      </c>
+      <c r="G88" s="18">
+        <v>4093079</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="18">
+        <v>163723</v>
+      </c>
+      <c r="G89" s="18">
+        <v>4093079</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="18">
+        <v>163723</v>
+      </c>
+      <c r="G90" s="18">
+        <v>4093079</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="18">
+        <v>163723</v>
+      </c>
+      <c r="G91" s="18">
+        <v>4093079</v>
+      </c>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="18">
+        <v>163723</v>
+      </c>
+      <c r="G92" s="18">
+        <v>4093079</v>
+      </c>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="20"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C93" s="32"/>
-      <c r="H93" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="B93" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" s="18">
+        <v>163723</v>
+      </c>
+      <c r="G93" s="18">
+        <v>4093079</v>
+      </c>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="20"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C94" s="32"/>
-      <c r="H94" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="B94" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94" s="18">
+        <v>163723</v>
+      </c>
+      <c r="G94" s="18">
+        <v>4093079</v>
+      </c>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="18">
+        <v>163723</v>
+      </c>
+      <c r="G95" s="18">
+        <v>4093079</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F96" s="18">
+        <v>163723</v>
+      </c>
+      <c r="G96" s="18">
+        <v>4093079</v>
+      </c>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="18">
+        <v>163723</v>
+      </c>
+      <c r="G97" s="18">
+        <v>4093079</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="18">
+        <v>163723</v>
+      </c>
+      <c r="G98" s="18">
+        <v>4093079</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99" s="24">
+        <v>163723</v>
+      </c>
+      <c r="G99" s="24">
+        <v>4093079</v>
+      </c>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="26"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C104" s="32"/>
+      <c r="H104" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="H105" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="H104:J104"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9006714837.xlsx
+++ b/Data/EC/NIT-9006714837.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4E5BAE0-B6FC-4F08-9644-BDF1E5A483A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF6ECC3F-0988-4D30-8F13-C7B43823D2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47729AA2-C680-452D-A64E-D202908BCBC5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E235181C-A26B-45D9-8B21-577FD508EA33}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="76">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -80,16 +80,97 @@
     <t>ELOY MANUEL VILLADIEGO GONZALEZ</t>
   </si>
   <si>
+    <t>33056136</t>
+  </si>
+  <si>
+    <t>LIBIA ESTHER FERIA OQUENDO</t>
+  </si>
+  <si>
+    <t>1047417897</t>
+  </si>
+  <si>
+    <t>ALFREDO DE JESUS FORTICH LEYVA</t>
+  </si>
+  <si>
+    <t>92227937</t>
+  </si>
+  <si>
+    <t>JOSE DE JESUS ZUÑIGA QUIROZ</t>
+  </si>
+  <si>
+    <t>92533448</t>
+  </si>
+  <si>
+    <t>ARGEMIRO LONDOÑO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>92516991</t>
+  </si>
+  <si>
+    <t>JORGE LUIS VERGARA MERCADO</t>
+  </si>
+  <si>
+    <t>1072522959</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO TAMAYO VERBEL</t>
+  </si>
+  <si>
+    <t>13510129</t>
+  </si>
+  <si>
+    <t>JOSE ALEXANDER GARCIA NUÑEZ</t>
+  </si>
+  <si>
+    <t>79801197</t>
+  </si>
+  <si>
+    <t>CARLOS JAVIER PEDRAZA ALFONSO</t>
+  </si>
+  <si>
+    <t>98763916</t>
+  </si>
+  <si>
+    <t>CARLOS MARIO MARTINEZ JARABA</t>
+  </si>
+  <si>
+    <t>15671242</t>
+  </si>
+  <si>
+    <t>ALFREDO MANUEL PALLARES CAUSIL</t>
+  </si>
+  <si>
+    <t>78756449</t>
+  </si>
+  <si>
+    <t>LEONARDO FIDEL HOYOS LLORENTE</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>92228088</t>
+  </si>
+  <si>
+    <t>EDUAR ENRIQUE BARBOZA SOTOMAYOR</t>
+  </si>
+  <si>
     <t>1805</t>
   </si>
   <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>33056136</t>
-  </si>
-  <si>
-    <t>LIBIA ESTHER FERIA OQUENDO</t>
+    <t>1049638686</t>
+  </si>
+  <si>
+    <t>MARIA CAMILA ROBAYO ABRIL</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>64524103</t>
+  </si>
+  <si>
+    <t>ADRIANA MARIA DUQUE LOPEZ</t>
   </si>
   <si>
     <t>1052964267</t>
@@ -98,205 +179,58 @@
     <t>JUAN CAMILO GUZMAN SOLANO</t>
   </si>
   <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1047417897</t>
-  </si>
-  <si>
-    <t>ALFREDO DE JESUS FORTICH LEYVA</t>
-  </si>
-  <si>
-    <t>9692562</t>
-  </si>
-  <si>
-    <t>JHON JAIRO SANCHEZ QUINTERO</t>
-  </si>
-  <si>
-    <t>92227937</t>
-  </si>
-  <si>
-    <t>JOSE DE JESUS ZUÑIGA QUIROZ</t>
-  </si>
-  <si>
-    <t>92533448</t>
-  </si>
-  <si>
-    <t>ARGEMIRO LONDOÑO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>4020181</t>
-  </si>
-  <si>
-    <t>MILTON ENRIQUE MEDINA MARTINEZ</t>
-  </si>
-  <si>
-    <t>92516991</t>
-  </si>
-  <si>
-    <t>JORGE LUIS VERGARA MERCADO</t>
-  </si>
-  <si>
-    <t>1072522959</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO TAMAYO VERBEL</t>
-  </si>
-  <si>
-    <t>13510129</t>
-  </si>
-  <si>
-    <t>JOSE ALEXANDER GARCIA NUÑEZ</t>
-  </si>
-  <si>
-    <t>1098672612</t>
-  </si>
-  <si>
-    <t>YENYFER YAMILE VALLEN VARGAS</t>
-  </si>
-  <si>
-    <t>79801197</t>
-  </si>
-  <si>
-    <t>CARLOS JAVIER PEDRAZA ALFONSO</t>
-  </si>
-  <si>
-    <t>98763916</t>
-  </si>
-  <si>
-    <t>CARLOS MARIO MARTINEZ JARABA</t>
-  </si>
-  <si>
-    <t>1065874754</t>
-  </si>
-  <si>
-    <t>HIMER BOTELLO GUERRERO</t>
-  </si>
-  <si>
-    <t>15671242</t>
-  </si>
-  <si>
-    <t>ALFREDO MANUEL PALLARES CAUSIL</t>
-  </si>
-  <si>
-    <t>78756449</t>
-  </si>
-  <si>
-    <t>LEONARDO FIDEL HOYOS LLORENTE</t>
-  </si>
-  <si>
-    <t>1063562169</t>
-  </si>
-  <si>
-    <t>DEIMER SAJONERO ROJAS</t>
-  </si>
-  <si>
-    <t>14897240</t>
-  </si>
-  <si>
-    <t>MARIO GERMAN CAICEDO</t>
-  </si>
-  <si>
-    <t>1052218498</t>
-  </si>
-  <si>
-    <t>JUAN JOSE FLORIAN PEDROZO</t>
-  </si>
-  <si>
-    <t>1062402364</t>
-  </si>
-  <si>
-    <t>ERID JOSE ARIZA GAMBA</t>
-  </si>
-  <si>
-    <t>5047866</t>
-  </si>
-  <si>
-    <t>TATIANA TATIANA CHONA SIERRA</t>
-  </si>
-  <si>
-    <t>12503312</t>
-  </si>
-  <si>
-    <t>JOSE DEL CARMEN MANDON MANDON</t>
-  </si>
-  <si>
-    <t>3821492</t>
-  </si>
-  <si>
-    <t>RODRIGO MUÑOZ JIMENEZ</t>
-  </si>
-  <si>
-    <t>92228088</t>
-  </si>
-  <si>
-    <t>EDUAR ENRIQUE BARBOZA SOTOMAYOR</t>
-  </si>
-  <si>
-    <t>1049638686</t>
-  </si>
-  <si>
-    <t>MARIA CAMILA ROBAYO ABRIL</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>64524103</t>
-  </si>
-  <si>
-    <t>ADRIANA MARIA DUQUE LOPEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -395,7 +329,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -408,9 +344,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -610,23 +544,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,10 +588,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,7 +644,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3406B19E-B7B8-579A-1087-0DACFED4DCE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEEC9AD-0B4D-C127-ED77-45F1A487DCE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,8 +995,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8405AB09-67F1-4ED4-A644-3C6855CDB226}">
-  <dimension ref="B2:J105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AAA568-7D31-45FA-B19D-FE2DAC5931EB}">
+  <dimension ref="B2:J94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1086,7 +1020,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1131,7 +1065,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1163,12 +1097,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>10021836</v>
+        <v>9421284</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1179,14 +1113,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F13" s="5">
         <v>22</v>
@@ -1216,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1259,10 +1193,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>57906</v>
+        <v>65459</v>
       </c>
       <c r="G17" s="18">
         <v>2001540</v>
@@ -1276,19 +1210,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>75529</v>
       </c>
       <c r="G18" s="18">
-        <v>2001540</v>
+        <v>1888230</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1299,19 +1233,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>65459</v>
+        <v>100522</v>
       </c>
       <c r="G19" s="18">
-        <v>2001540</v>
+        <v>3141300</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1322,19 +1256,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>75529</v>
+        <v>126998</v>
       </c>
       <c r="G20" s="18">
-        <v>1888230</v>
+        <v>3174960</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1345,19 +1279,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>73012</v>
+        <v>248756</v>
       </c>
       <c r="G21" s="18">
-        <v>1888230</v>
+        <v>6218910</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1368,19 +1302,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>75529</v>
+        <v>281813</v>
       </c>
       <c r="G22" s="18">
-        <v>1888230</v>
+        <v>8129220</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1391,19 +1325,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>75529</v>
+        <v>248756</v>
       </c>
       <c r="G23" s="18">
-        <v>1888230</v>
+        <v>6218910</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1414,19 +1348,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>75529</v>
+        <v>105800</v>
       </c>
       <c r="G24" s="18">
-        <v>1888230</v>
+        <v>2645010</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1437,19 +1371,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
-        <v>75529</v>
+        <v>292652</v>
       </c>
       <c r="G25" s="18">
-        <v>1888230</v>
+        <v>8129220</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1460,19 +1394,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>75529</v>
+        <v>64737</v>
       </c>
       <c r="G26" s="18">
-        <v>1888230</v>
+        <v>1798260</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1483,19 +1417,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
-        <v>75529</v>
+        <v>113496</v>
       </c>
       <c r="G27" s="18">
-        <v>1888230</v>
+        <v>2837400</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1506,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>75529</v>
@@ -1529,19 +1463,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F29" s="18">
         <v>75529</v>
       </c>
       <c r="G29" s="18">
-        <v>1888230</v>
+        <v>2001540</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1552,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F30" s="18">
         <v>75529</v>
@@ -1575,19 +1509,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F31" s="18">
-        <v>75529</v>
+        <v>57906</v>
       </c>
       <c r="G31" s="18">
-        <v>1888230</v>
+        <v>2001540</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1598,16 +1532,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F32" s="18">
-        <v>75529</v>
+        <v>57906</v>
       </c>
       <c r="G32" s="18">
         <v>1888230</v>
@@ -1621,19 +1555,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F33" s="18">
-        <v>75529</v>
+        <v>142420</v>
       </c>
       <c r="G33" s="18">
-        <v>1888230</v>
+        <v>3560490</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1644,19 +1578,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F34" s="18">
-        <v>75529</v>
+        <v>163723</v>
       </c>
       <c r="G34" s="18">
-        <v>1888230</v>
+        <v>4093079</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1667,16 +1601,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F35" s="18">
-        <v>75529</v>
+        <v>17623</v>
       </c>
       <c r="G35" s="18">
         <v>1888230</v>
@@ -1690,19 +1624,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F36" s="18">
-        <v>75529</v>
+        <v>142420</v>
       </c>
       <c r="G36" s="18">
-        <v>1888230</v>
+        <v>3560490</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1713,19 +1647,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F37" s="18">
-        <v>75529</v>
+        <v>163723</v>
       </c>
       <c r="G37" s="18">
-        <v>1888230</v>
+        <v>4093079</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1736,16 +1670,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F38" s="18">
-        <v>17623</v>
+        <v>75529</v>
       </c>
       <c r="G38" s="18">
         <v>1888230</v>
@@ -1759,19 +1693,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F39" s="18">
-        <v>100522</v>
+        <v>142420</v>
       </c>
       <c r="G39" s="18">
-        <v>3141300</v>
+        <v>3560490</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1782,19 +1716,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F40" s="18">
-        <v>58327</v>
+        <v>163723</v>
       </c>
       <c r="G40" s="18">
-        <v>1901970</v>
+        <v>4093079</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1805,19 +1739,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F41" s="18">
-        <v>126998</v>
+        <v>75529</v>
       </c>
       <c r="G41" s="18">
-        <v>3174960</v>
+        <v>1888230</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1828,19 +1762,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F42" s="18">
-        <v>248756</v>
+        <v>142420</v>
       </c>
       <c r="G42" s="18">
-        <v>6218910</v>
+        <v>3560490</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1851,19 +1785,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F43" s="18">
-        <v>68497</v>
+        <v>163723</v>
       </c>
       <c r="G43" s="18">
-        <v>2233590</v>
+        <v>4093079</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1874,19 +1808,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F44" s="18">
-        <v>281813</v>
+        <v>75529</v>
       </c>
       <c r="G44" s="18">
-        <v>8129220</v>
+        <v>1888230</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1897,19 +1831,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F45" s="18">
-        <v>248756</v>
+        <v>142420</v>
       </c>
       <c r="G45" s="18">
-        <v>6218910</v>
+        <v>3560490</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1920,19 +1854,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F46" s="18">
-        <v>105800</v>
+        <v>163723</v>
       </c>
       <c r="G46" s="18">
-        <v>2645010</v>
+        <v>4093079</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1943,19 +1877,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F47" s="18">
-        <v>92000</v>
+        <v>75529</v>
       </c>
       <c r="G47" s="18">
-        <v>6943200</v>
+        <v>1888230</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1966,19 +1900,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F48" s="18">
-        <v>292652</v>
+        <v>142420</v>
       </c>
       <c r="G48" s="18">
-        <v>8129220</v>
+        <v>3560490</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1989,19 +1923,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F49" s="18">
-        <v>64737</v>
+        <v>163723</v>
       </c>
       <c r="G49" s="18">
-        <v>1798260</v>
+        <v>4093079</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2012,19 +1946,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F50" s="18">
-        <v>58327</v>
+        <v>75529</v>
       </c>
       <c r="G50" s="18">
-        <v>1901970</v>
+        <v>1888230</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2035,19 +1969,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F51" s="18">
-        <v>113496</v>
+        <v>142420</v>
       </c>
       <c r="G51" s="18">
-        <v>2837400</v>
+        <v>3560490</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2058,19 +1992,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F52" s="18">
-        <v>75529</v>
+        <v>163723</v>
       </c>
       <c r="G52" s="18">
-        <v>1888230</v>
+        <v>4093079</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2081,19 +2015,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F53" s="18">
-        <v>37105</v>
+        <v>75529</v>
       </c>
       <c r="G53" s="18">
-        <v>1209960</v>
+        <v>1888230</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2104,19 +2038,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F54" s="18">
-        <v>58327</v>
+        <v>142420</v>
       </c>
       <c r="G54" s="18">
-        <v>1901970</v>
+        <v>3560490</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2127,19 +2061,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F55" s="18">
-        <v>37105</v>
+        <v>163723</v>
       </c>
       <c r="G55" s="18">
-        <v>1209960</v>
+        <v>4093079</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2150,19 +2084,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F56" s="18">
-        <v>37105</v>
+        <v>75529</v>
       </c>
       <c r="G56" s="18">
-        <v>1209960</v>
+        <v>1888230</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2173,19 +2107,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
-        <v>58327</v>
+        <v>142420</v>
       </c>
       <c r="G57" s="18">
-        <v>1901970</v>
+        <v>3560490</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2196,19 +2130,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
-        <v>58327</v>
+        <v>163723</v>
       </c>
       <c r="G58" s="18">
-        <v>1901970</v>
+        <v>4093079</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2219,19 +2153,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F59" s="18">
-        <v>37105</v>
+        <v>75529</v>
       </c>
       <c r="G59" s="18">
-        <v>1209960</v>
+        <v>1888230</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2242,19 +2176,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>57906</v>
+        <v>142420</v>
       </c>
       <c r="G60" s="18">
-        <v>1888230</v>
+        <v>3560490</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2265,19 +2199,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F61" s="18">
-        <v>75529</v>
+        <v>163723</v>
       </c>
       <c r="G61" s="18">
-        <v>1888230</v>
+        <v>4093079</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2288,19 +2222,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F62" s="18">
-        <v>137672</v>
+        <v>75529</v>
       </c>
       <c r="G62" s="18">
-        <v>3560490</v>
+        <v>1888230</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2311,13 +2245,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F63" s="18">
         <v>142420</v>
@@ -2334,19 +2268,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F64" s="18">
-        <v>142420</v>
+        <v>163723</v>
       </c>
       <c r="G64" s="18">
-        <v>3560490</v>
+        <v>4093079</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2357,19 +2291,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F65" s="18">
-        <v>142420</v>
+        <v>75529</v>
       </c>
       <c r="G65" s="18">
-        <v>3560490</v>
+        <v>1888230</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2380,13 +2314,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F66" s="18">
         <v>142420</v>
@@ -2403,19 +2337,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F67" s="18">
-        <v>142420</v>
+        <v>163723</v>
       </c>
       <c r="G67" s="18">
-        <v>3560490</v>
+        <v>4093079</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2426,19 +2360,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F68" s="18">
-        <v>142420</v>
+        <v>75529</v>
       </c>
       <c r="G68" s="18">
-        <v>3560490</v>
+        <v>1888230</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2449,13 +2383,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F69" s="18">
         <v>142420</v>
@@ -2472,19 +2406,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F70" s="18">
-        <v>142420</v>
+        <v>163723</v>
       </c>
       <c r="G70" s="18">
-        <v>3560490</v>
+        <v>4093079</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2495,19 +2429,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F71" s="18">
-        <v>142420</v>
+        <v>75529</v>
       </c>
       <c r="G71" s="18">
-        <v>3560490</v>
+        <v>1888230</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2518,13 +2452,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F72" s="18">
         <v>142420</v>
@@ -2541,19 +2475,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F73" s="18">
-        <v>142420</v>
+        <v>163723</v>
       </c>
       <c r="G73" s="18">
-        <v>3560490</v>
+        <v>4093079</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2564,19 +2498,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F74" s="18">
-        <v>142420</v>
+        <v>75529</v>
       </c>
       <c r="G74" s="18">
-        <v>3560490</v>
+        <v>1888230</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2587,13 +2521,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F75" s="18">
         <v>142420</v>
@@ -2610,19 +2544,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F76" s="18">
-        <v>142420</v>
+        <v>163723</v>
       </c>
       <c r="G76" s="18">
-        <v>3560490</v>
+        <v>4093079</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2633,19 +2567,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F77" s="18">
-        <v>142420</v>
+        <v>75529</v>
       </c>
       <c r="G77" s="18">
-        <v>3560490</v>
+        <v>1888230</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2656,13 +2590,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F78" s="18">
         <v>142420</v>
@@ -2679,19 +2613,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F79" s="18">
-        <v>142420</v>
+        <v>163723</v>
       </c>
       <c r="G79" s="18">
-        <v>3560490</v>
+        <v>4093079</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2702,19 +2636,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F80" s="18">
-        <v>142420</v>
+        <v>75529</v>
       </c>
       <c r="G80" s="18">
-        <v>3560490</v>
+        <v>1888230</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2725,19 +2659,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F81" s="18">
-        <v>158266</v>
+        <v>142420</v>
       </c>
       <c r="G81" s="18">
-        <v>4093079</v>
+        <v>3560490</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2748,13 +2682,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F82" s="18">
         <v>163723</v>
@@ -2771,19 +2705,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F83" s="18">
-        <v>163723</v>
+        <v>75529</v>
       </c>
       <c r="G83" s="18">
-        <v>4093079</v>
+        <v>1888230</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2794,19 +2728,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F84" s="18">
-        <v>163723</v>
+        <v>142420</v>
       </c>
       <c r="G84" s="18">
-        <v>4093079</v>
+        <v>3560490</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2817,13 +2751,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F85" s="18">
         <v>163723</v>
@@ -2840,19 +2774,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F86" s="18">
-        <v>163723</v>
+        <v>73012</v>
       </c>
       <c r="G86" s="18">
-        <v>4093079</v>
+        <v>1888230</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2863,328 +2797,75 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="F87" s="18">
-        <v>163723</v>
+        <v>137672</v>
       </c>
       <c r="G87" s="18">
-        <v>4093079</v>
+        <v>3560490</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F88" s="18">
-        <v>163723</v>
-      </c>
-      <c r="G88" s="18">
+      <c r="B88" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F88" s="24">
+        <v>158266</v>
+      </c>
+      <c r="G88" s="24">
         <v>4093079</v>
       </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F89" s="18">
-        <v>163723</v>
-      </c>
-      <c r="G89" s="18">
-        <v>4093079</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="18">
-        <v>163723</v>
-      </c>
-      <c r="G90" s="18">
-        <v>4093079</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F91" s="18">
-        <v>163723</v>
-      </c>
-      <c r="G91" s="18">
-        <v>4093079</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F92" s="18">
-        <v>163723</v>
-      </c>
-      <c r="G92" s="18">
-        <v>4093079</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F93" s="18">
-        <v>163723</v>
-      </c>
-      <c r="G93" s="18">
-        <v>4093079</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="B93" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" s="32"/>
+      <c r="H93" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F94" s="18">
-        <v>163723</v>
-      </c>
-      <c r="G94" s="18">
-        <v>4093079</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F95" s="18">
-        <v>163723</v>
-      </c>
-      <c r="G95" s="18">
-        <v>4093079</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B96" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F96" s="18">
-        <v>163723</v>
-      </c>
-      <c r="G96" s="18">
-        <v>4093079</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F97" s="18">
-        <v>163723</v>
-      </c>
-      <c r="G97" s="18">
-        <v>4093079</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F98" s="18">
-        <v>163723</v>
-      </c>
-      <c r="G98" s="18">
-        <v>4093079</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F99" s="24">
-        <v>163723</v>
-      </c>
-      <c r="G99" s="24">
-        <v>4093079</v>
-      </c>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="26"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C104" s="32"/>
-      <c r="H104" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105" s="32"/>
-      <c r="H105" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="B94" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="H94" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H93:J93"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
